--- a/Dados/Auxiliares/Padronização de Produtos.xlsx
+++ b/Dados/Auxiliares/Padronização de Produtos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5842E4-4CD9-44FE-B84D-1112FAF02C6C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F00E731-1F90-4930-85E4-76A229B9EEAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="334">
   <si>
     <t>Proagro</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>VIME</t>
+  </si>
+  <si>
+    <t>idProduto</t>
   </si>
 </sst>
 </file>
@@ -1435,2605 +1438,3118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G171"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" customWidth="1"/>
-    <col min="4" max="4" width="75.109375" customWidth="1"/>
-    <col min="5" max="5" width="75.33203125" customWidth="1"/>
-    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.21875" customWidth="1"/>
+    <col min="5" max="5" width="75.109375" customWidth="1"/>
+    <col min="6" max="6" width="75.33203125" customWidth="1"/>
+    <col min="7" max="7" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="5" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="5" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5" t="s">
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="12" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="13" t="s">
+      <c r="F41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="5" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="5" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="5" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="5" t="s">
+      <c r="F48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="5" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="C50" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="5" t="s">
+      <c r="F50" s="9"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="5" t="s">
+      <c r="F51" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="5" t="s">
+      <c r="F52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="5" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="5" t="s">
+      <c r="F55" s="9"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="5" t="s">
+      <c r="F57" s="9"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="5" t="s">
+      <c r="F58" s="9"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="9"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="D59" s="9"/>
       <c r="E59" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="13" t="s">
+      <c r="F59" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="5" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="5" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="5" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="5" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="9"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="5" t="s">
+      <c r="F67" s="9"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="5" t="s">
+      <c r="F69" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="5" t="s">
+      <c r="F70" s="9"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="9" t="s">
-        <v>140</v>
-      </c>
+      <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="13" t="s">
+      <c r="F71" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="5" t="s">
+      <c r="F72" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="5" t="s">
+      <c r="F73" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="5" t="s">
+      <c r="F74" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="9"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="9" t="s">
-        <v>151</v>
-      </c>
+      <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="5" t="s">
+      <c r="F75" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="C76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="9"/>
+      <c r="G76" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="13" t="s">
+      <c r="F77" s="9"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="9" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="13" t="s">
+      <c r="F78" s="9"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="9"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="9" t="s">
-        <v>159</v>
-      </c>
+      <c r="D79" s="9"/>
       <c r="E79" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="13" t="s">
+      <c r="F79" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="13" t="s">
+      <c r="F80" s="9"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="9" t="s">
-        <v>163</v>
-      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="13" t="s">
+      <c r="F81" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="13" t="s">
+      <c r="F82" s="9"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="D83" s="9"/>
       <c r="E83" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="13" t="s">
+      <c r="F83" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="13" t="s">
+      <c r="F84" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G84" s="8"/>
+      <c r="H84" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="9"/>
+      <c r="G85" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G85" s="13" t="s">
+      <c r="H85" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="13" t="s">
+      <c r="F86" s="9"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="H87" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="H88" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="13" t="s">
+      <c r="F89" s="9"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="13" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G91" s="13" t="s">
+      <c r="H91" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="9"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G92" s="13" t="s">
+      <c r="H92" s="13" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="9"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="13" t="s">
+      <c r="H93" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="9"/>
+      <c r="H94" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="9"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="9" t="s">
-        <v>186</v>
-      </c>
+      <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="13" t="s">
+      <c r="F95" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G95" s="9"/>
+      <c r="H95" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="13" t="s">
+      <c r="H96" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="9"/>
+      <c r="G97" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="G97" s="13" t="s">
+      <c r="H97" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="9" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="H98" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G99" s="13" t="s">
+      <c r="H99" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B100" s="9"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="13" t="s">
+      <c r="F100" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="13" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="C101" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="H101" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
-      <c r="B103" s="9"/>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="9" t="s">
-        <v>203</v>
-      </c>
+      <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="13" t="s">
+      <c r="F103" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G104" s="13" t="s">
+      <c r="H104" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
-      <c r="B105" s="9"/>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="9" t="s">
-        <v>207</v>
-      </c>
+      <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="13" t="s">
+      <c r="F105" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="13" t="s">
+      <c r="F106" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G106" s="9"/>
+      <c r="H106" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="13" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="13" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="C108" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G108" s="13" t="s">
+      <c r="H108" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="9" t="s">
+      <c r="F109" s="9"/>
+      <c r="G109" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G109" s="13" t="s">
+      <c r="H109" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="13" t="s">
+      <c r="G110" s="9"/>
+      <c r="H110" s="13" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="C111" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9" t="s">
-        <v>221</v>
-      </c>
+      <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="F111" s="9"/>
-      <c r="G111" s="13" t="s">
+      <c r="F111" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="C112" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9" t="s">
-        <v>224</v>
-      </c>
+      <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="13" t="s">
+      <c r="F112" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G112" s="9"/>
+      <c r="H112" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="13" t="s">
+      <c r="G113" s="9"/>
+      <c r="H113" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="C114" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="D114" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="F114" s="9"/>
-      <c r="G114" s="13" t="s">
+      <c r="F114" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G114" s="9"/>
+      <c r="H114" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="13" t="s">
+      <c r="G115" s="9"/>
+      <c r="H115" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="9"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="13" t="s">
+      <c r="F116" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G116" s="9"/>
+      <c r="H116" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="13" t="s">
+      <c r="G117" s="9"/>
+      <c r="H117" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="13" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="C119" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="9" t="s">
+      <c r="F119" s="9"/>
+      <c r="G119" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G119" s="13" t="s">
+      <c r="H119" s="13" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="6"/>
-      <c r="B120" s="9"/>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="9"/>
+      <c r="G120" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G120" s="13" t="s">
+      <c r="H120" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="9"/>
+      <c r="G121" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="G121" s="13" t="s">
+      <c r="H121" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="14" t="s">
+      <c r="F122" s="9"/>
+      <c r="G122" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="G122" s="13" t="s">
+      <c r="H122" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="13" t="s">
+      <c r="G123" s="9"/>
+      <c r="H123" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-      <c r="B124" s="9"/>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="9" t="s">
-        <v>245</v>
-      </c>
+      <c r="E124" s="9"/>
       <c r="F124" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G124" s="13" t="s">
+      <c r="G124" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H124" s="13" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="13" t="s">
+      <c r="G125" s="9"/>
+      <c r="H125" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="6"/>
-      <c r="B126" s="9"/>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="9"/>
+      <c r="F126" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="13" t="s">
+      <c r="G126" s="9"/>
+      <c r="H126" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="9"/>
+      <c r="G127" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G127" s="13" t="s">
+      <c r="H127" s="13" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-      <c r="B128" s="9" t="s">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6"/>
+      <c r="C128" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="13" t="s">
+      <c r="G128" s="9"/>
+      <c r="H128" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="13" t="s">
+      <c r="G129" s="9"/>
+      <c r="H129" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="C130" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="9" t="s">
+      <c r="F130" s="9"/>
+      <c r="G130" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G130" s="13" t="s">
+      <c r="H130" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="C131" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="9" t="s">
+      <c r="F131" s="9"/>
+      <c r="G131" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="G131" s="13" t="s">
+      <c r="H131" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="13" t="s">
+      <c r="G132" s="9"/>
+      <c r="H132" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="9"/>
+      <c r="G133" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G133" s="13" t="s">
+      <c r="H133" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="C134" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="13" t="s">
+      <c r="G134" s="9"/>
+      <c r="H134" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="9" t="s">
+      <c r="F135" s="9"/>
+      <c r="G135" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="G135" s="13" t="s">
+      <c r="H135" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="13" t="s">
+      <c r="G136" s="9"/>
+      <c r="H136" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="13" t="s">
+      <c r="G137" s="9"/>
+      <c r="H137" s="13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="9" t="s">
+      <c r="F138" s="9"/>
+      <c r="G138" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G138" s="13" t="s">
+      <c r="H138" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="13" t="s">
+      <c r="G139" s="9"/>
+      <c r="H139" s="13" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="C140" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="9"/>
+      <c r="G140" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G140" s="13" t="s">
+      <c r="H140" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
-      <c r="B141" s="9"/>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="6"/>
       <c r="C141" s="9"/>
-      <c r="D141" s="9" t="s">
-        <v>277</v>
-      </c>
+      <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="F141" s="9"/>
-      <c r="G141" s="13" t="s">
+      <c r="F141" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G141" s="9"/>
+      <c r="H141" s="13" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="C142" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="13" t="s">
+      <c r="G142" s="9"/>
+      <c r="H142" s="13" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
-      <c r="B143" s="9"/>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="6"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="9"/>
+      <c r="G143" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G143" s="13" t="s">
+      <c r="H143" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="13" t="s">
+      <c r="G144" s="9"/>
+      <c r="H144" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="13" t="s">
+      <c r="G145" s="9"/>
+      <c r="H145" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B146" s="9"/>
       <c r="C146" s="9"/>
-      <c r="D146" s="12"/>
+      <c r="D146" s="9"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
-      <c r="G146" s="13" t="s">
+      <c r="G146" s="12"/>
+      <c r="H146" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="9"/>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="6"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="12" t="s">
-        <v>285</v>
-      </c>
+      <c r="D147" s="9"/>
       <c r="E147" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="13" t="s">
+      <c r="F147" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G147" s="12"/>
+      <c r="H147" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="9"/>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="6"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="12" t="s">
-        <v>287</v>
-      </c>
+      <c r="D148" s="9"/>
       <c r="E148" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="13" t="s">
+      <c r="F148" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="G148" s="12"/>
+      <c r="H148" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="9"/>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="6"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="12" t="s">
-        <v>288</v>
-      </c>
+      <c r="D149" s="9"/>
       <c r="E149" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="13" t="s">
+      <c r="F149" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G149" s="12"/>
+      <c r="H149" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="9"/>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="12" t="s">
-        <v>289</v>
-      </c>
+      <c r="D150" s="9"/>
       <c r="E150" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="F150" s="12"/>
-      <c r="G150" s="13" t="s">
+      <c r="F150" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G150" s="12"/>
+      <c r="H150" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="9"/>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="6"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="12" t="s">
-        <v>290</v>
-      </c>
+      <c r="D151" s="9"/>
       <c r="E151" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="13" t="s">
+      <c r="F151" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="9"/>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" s="6"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="12" t="s">
-        <v>291</v>
-      </c>
+      <c r="D152" s="9"/>
       <c r="E152" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F152" s="12"/>
-      <c r="G152" s="13" t="s">
+      <c r="F152" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="G152" s="12"/>
+      <c r="H152" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="9"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="6"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="12" t="s">
-        <v>292</v>
-      </c>
+      <c r="D153" s="9"/>
       <c r="E153" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F153" s="12"/>
-      <c r="G153" s="13" t="s">
+      <c r="F153" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G153" s="12"/>
+      <c r="H153" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="9"/>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="12" t="s">
-        <v>293</v>
-      </c>
+      <c r="D154" s="9"/>
       <c r="E154" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="F154" s="12"/>
-      <c r="G154" s="13" t="s">
+      <c r="F154" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="G154" s="12"/>
+      <c r="H154" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="6"/>
-      <c r="B155" s="9"/>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="6"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="D155" s="9"/>
       <c r="E155" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F155" s="9"/>
-      <c r="G155" s="13" t="s">
+      <c r="F155" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G155" s="9"/>
+      <c r="H155" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="C156" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="D156" s="9" t="s">
         <v>297</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>298</v>
       </c>
       <c r="E156" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F156" s="9"/>
-      <c r="G156" s="13" t="s">
+      <c r="F156" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G156" s="9"/>
+      <c r="H156" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="C157" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9" t="s">
-        <v>301</v>
-      </c>
+      <c r="D157" s="9"/>
       <c r="E157" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="F157" s="9"/>
-      <c r="G157" s="13" t="s">
+      <c r="F157" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G157" s="9"/>
+      <c r="H157" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="9"/>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="6"/>
       <c r="C158" s="9"/>
-      <c r="D158" s="9" t="s">
-        <v>302</v>
-      </c>
+      <c r="D158" s="9"/>
       <c r="E158" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="F158" s="9"/>
-      <c r="G158" s="13" t="s">
+      <c r="F158" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G158" s="9"/>
+      <c r="H158" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
-      <c r="B159" s="9"/>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="6"/>
       <c r="C159" s="9"/>
-      <c r="D159" s="9" t="s">
-        <v>304</v>
-      </c>
+      <c r="D159" s="9"/>
       <c r="E159" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="F159" s="9"/>
-      <c r="G159" s="13" t="s">
+      <c r="F159" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G159" s="9"/>
+      <c r="H159" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="C160" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="9" t="s">
+      <c r="F160" s="9"/>
+      <c r="G160" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G160" s="13" t="s">
+      <c r="H160" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="9"/>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="6"/>
       <c r="C161" s="9"/>
-      <c r="D161" s="9" t="s">
-        <v>309</v>
-      </c>
+      <c r="D161" s="9"/>
       <c r="E161" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="F161" s="9"/>
-      <c r="G161" s="13" t="s">
+      <c r="F161" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G161" s="9"/>
+      <c r="H161" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="C162" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9" t="s">
-        <v>313</v>
-      </c>
+      <c r="D162" s="9"/>
       <c r="E162" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F162" s="9"/>
-      <c r="G162" s="13" t="s">
+      <c r="F162" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G162" s="9"/>
+      <c r="H162" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="C163" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="D163" s="9" t="s">
         <v>316</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>317</v>
       </c>
       <c r="E163" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F163" s="9"/>
-      <c r="G163" s="13" t="s">
+      <c r="F163" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G163" s="9"/>
+      <c r="H163" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="9"/>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="6"/>
       <c r="C164" s="9"/>
-      <c r="D164" s="9" t="s">
-        <v>318</v>
-      </c>
+      <c r="D164" s="9"/>
       <c r="E164" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="F164" s="9"/>
-      <c r="G164" s="13" t="s">
+      <c r="F164" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G164" s="9"/>
+      <c r="H164" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="C165" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9" t="s">
-        <v>322</v>
-      </c>
+      <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="F165" s="9"/>
-      <c r="G165" s="13" t="s">
+      <c r="F165" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G165" s="9"/>
+      <c r="H165" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
-      <c r="F166" s="9" t="s">
+      <c r="F166" s="9"/>
+      <c r="G166" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="G166" s="13" t="s">
+      <c r="H166" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="6" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="C167" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="9"/>
-      <c r="F167" s="15" t="s">
+      <c r="F167" s="9"/>
+      <c r="G167" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="G167" s="13" t="s">
+      <c r="H167" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="6"/>
-      <c r="B168" s="9"/>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="6"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
-      <c r="F168" s="15" t="s">
+      <c r="F168" s="9"/>
+      <c r="G168" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="G168" s="13" t="s">
+      <c r="H168" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="6" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="13" t="s">
+      <c r="G169" s="9"/>
+      <c r="H169" s="13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="6" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="13" t="s">
+      <c r="G170" s="9"/>
+      <c r="H170" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="6" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
-      <c r="G171" s="13" t="s">
+      <c r="G171" s="6"/>
+      <c r="H171" s="13" t="s">
         <v>332</v>
       </c>
     </row>

--- a/Dados/Auxiliares/Padronização de Produtos.xlsx
+++ b/Dados/Auxiliares/Padronização de Produtos.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F00E731-1F90-4930-85E4-76A229B9EEAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4B5EC9-8550-40CE-951C-5B3A55B2ACFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="1" r:id="rId1"/>
+    <sheet name="Sem Classificação" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="427">
   <si>
     <t>Proagro</t>
   </si>
@@ -1022,6 +1023,285 @@
   </si>
   <si>
     <t>idProduto</t>
+  </si>
+  <si>
+    <t>Aguardente de cana (Mil litros)</t>
+  </si>
+  <si>
+    <t>Algodão em pluma (Toneladas)</t>
+  </si>
+  <si>
+    <t>Caroço de algodão (Toneladas)</t>
+  </si>
+  <si>
+    <t>Arroz em grão (Toneladas)</t>
+  </si>
+  <si>
+    <t>Café torrado em grão (Toneladas)</t>
+  </si>
+  <si>
+    <t>Café torrado e moído (Toneladas)</t>
+  </si>
+  <si>
+    <t>Cajuína (Mil litros)</t>
+  </si>
+  <si>
+    <t>Creme de leite (Toneladas)</t>
+  </si>
+  <si>
+    <t>Doces e geléias (Toneladas)</t>
+  </si>
+  <si>
+    <t>Farinha de mandioca (Toneladas)</t>
+  </si>
+  <si>
+    <t>Fubá de milho (Toneladas)</t>
+  </si>
+  <si>
+    <t>Fumo em rolo ou corda (Toneladas)</t>
+  </si>
+  <si>
+    <t>Legumes e verduras (processadas) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Licores (Mil litros)</t>
+  </si>
+  <si>
+    <t>Manteiga (Toneladas)</t>
+  </si>
+  <si>
+    <t>Melado (Mil litros)</t>
+  </si>
+  <si>
+    <t>Óleos vegetais (Mil litros)</t>
+  </si>
+  <si>
+    <t>Pães, bolos e biscoitos (Toneladas)</t>
+  </si>
+  <si>
+    <t>Polpa de frutas (Toneladas)</t>
+  </si>
+  <si>
+    <t>Queijo e requeijão (Toneladas)</t>
+  </si>
+  <si>
+    <t>Rapadura (Toneladas)</t>
+  </si>
+  <si>
+    <t>Sucos de frutas (Mil litros)</t>
+  </si>
+  <si>
+    <t>Vinho de uva (Mil litros)</t>
+  </si>
+  <si>
+    <t>Carne de bovinos(verde) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Carne de suínos(verde) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Carne de outros animais(verde) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Carne tratada(de sol, salgada) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Embutidos(linguiças, salsichas, etc.) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Couros e peles (Toneladas)</t>
+  </si>
+  <si>
+    <t>Carvão vegetal (Toneladas)</t>
+  </si>
+  <si>
+    <t>Produtos de madeira (Mil metros cúbicos)</t>
+  </si>
+  <si>
+    <t>Goma ou tapioca (Toneladas)</t>
+  </si>
+  <si>
+    <t>Abobrinha (Toneladas)</t>
+  </si>
+  <si>
+    <t>Acelga (Toneladas)</t>
+  </si>
+  <si>
+    <t>Agrião (Toneladas)</t>
+  </si>
+  <si>
+    <t>Aipo (Toneladas)</t>
+  </si>
+  <si>
+    <t>Alcachofra (Toneladas)</t>
+  </si>
+  <si>
+    <t>Alcaparra (Toneladas)</t>
+  </si>
+  <si>
+    <t>Alecrim (Toneladas)</t>
+  </si>
+  <si>
+    <t>Alface (Toneladas)</t>
+  </si>
+  <si>
+    <t>Alho-porró (Toneladas)</t>
+  </si>
+  <si>
+    <t>Almeirão (Toneladas)</t>
+  </si>
+  <si>
+    <t>Aspargo (Toneladas)</t>
+  </si>
+  <si>
+    <t>Batata-baroa (mandioquinha) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Batata-doce (Toneladas)</t>
+  </si>
+  <si>
+    <t>Berinjela (Toneladas)</t>
+  </si>
+  <si>
+    <t>Bertalha (Toneladas)</t>
+  </si>
+  <si>
+    <t>Beterraba (Toneladas)</t>
+  </si>
+  <si>
+    <t>Boldo (Toneladas)</t>
+  </si>
+  <si>
+    <t>Brócolis (Toneladas)</t>
+  </si>
+  <si>
+    <t>Bucha (esponja vegetal) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Camomila (Toneladas)</t>
+  </si>
+  <si>
+    <t>Cará (Toneladas)</t>
+  </si>
+  <si>
+    <t>Caruru (Toneladas)</t>
+  </si>
+  <si>
+    <t>Cebolinha (Toneladas)</t>
+  </si>
+  <si>
+    <t>Cenoura (Toneladas)</t>
+  </si>
+  <si>
+    <t>Chicória (Toneladas)</t>
+  </si>
+  <si>
+    <t>Chuchu (Toneladas)</t>
+  </si>
+  <si>
+    <t>Coentro (Toneladas)</t>
+  </si>
+  <si>
+    <t>Cogumelos (Toneladas)</t>
+  </si>
+  <si>
+    <t>Couve (Toneladas)</t>
+  </si>
+  <si>
+    <t>Couve-flor (Toneladas)</t>
+  </si>
+  <si>
+    <t>Erva-doce (Toneladas)</t>
+  </si>
+  <si>
+    <t>Ervilha (vagem) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Espinafre (Toneladas)</t>
+  </si>
+  <si>
+    <t>Gengibre (Toneladas)</t>
+  </si>
+  <si>
+    <t>Hortelã (Toneladas)</t>
+  </si>
+  <si>
+    <t>Inhame (Toneladas)</t>
+  </si>
+  <si>
+    <t>Jiló (Toneladas)</t>
+  </si>
+  <si>
+    <t>Lentilha (Toneladas)</t>
+  </si>
+  <si>
+    <t>Manjericão (Toneladas)</t>
+  </si>
+  <si>
+    <t>Maxixe (Toneladas)</t>
+  </si>
+  <si>
+    <t>Milho verde (espiga) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Morango (Toneladas)</t>
+  </si>
+  <si>
+    <t>Mostarda (semente) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Nabiça (Toneladas)</t>
+  </si>
+  <si>
+    <t>Nabo (Toneladas)</t>
+  </si>
+  <si>
+    <t>Orégano (Toneladas)</t>
+  </si>
+  <si>
+    <t>Pepino (Toneladas)</t>
+  </si>
+  <si>
+    <t>Pimenta (Toneladas)</t>
+  </si>
+  <si>
+    <t>Pimentão (Toneladas)</t>
+  </si>
+  <si>
+    <t>Quiabo (Toneladas)</t>
+  </si>
+  <si>
+    <t>Rabanete (Toneladas)</t>
+  </si>
+  <si>
+    <t>Repolho (Toneladas)</t>
+  </si>
+  <si>
+    <t>Rúcula (Toneladas)</t>
+  </si>
+  <si>
+    <t>Salsa (Toneladas)</t>
+  </si>
+  <si>
+    <t>Taioba (Toneladas)</t>
+  </si>
+  <si>
+    <t>Tomate (estaqueado) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Vagem (feijão vagem) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Sementes (produzidas para plantio) (Toneladas)</t>
+  </si>
+  <si>
+    <t>Mudas e outras formas de propagação (produzidas para plantio) (Mil unidades)</t>
+  </si>
+  <si>
+    <t>Tabela 6618</t>
+  </si>
+  <si>
+    <t>Tabela 6619</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1419,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1157,6 +1436,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1452,11 +1732,12 @@
     <col min="5" max="5" width="75.109375" customWidth="1"/>
     <col min="6" max="6" width="75.33203125" customWidth="1"/>
     <col min="7" max="7" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" customWidth="1"/>
+    <col min="8" max="9" width="61.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1477,12 +1758,18 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1495,12 +1782,14 @@
       <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1514,13 +1803,15 @@
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1534,13 +1825,15 @@
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1552,13 +1845,17 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1568,13 +1865,15 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1587,12 +1886,14 @@
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1602,13 +1903,17 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1621,12 +1926,14 @@
       <c r="G9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
@@ -1637,12 +1944,14 @@
       <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
@@ -1653,12 +1962,14 @@
       <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1668,13 +1979,17 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1686,13 +2001,17 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1702,2858 +2021,3504 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="5" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="5" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="7" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="7"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="5" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H21" s="7"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="5" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7" t="s">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H24" s="7"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="5" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="5" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="5" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="5" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H31" s="8"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H32" s="8"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="5" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="5" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="5" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H36" s="8"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H37" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="12" t="s">
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H38" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H39" s="8"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="B40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H40" s="8"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="B41" s="6"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H41" s="8"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="13" t="s">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="9" t="s">
+      <c r="D43" s="7"/>
+      <c r="E43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="5" t="s">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="5" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="5" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H46" s="8"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="5" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H48" s="8"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="5" t="s">
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="5" t="s">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="J50" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
         <v>49</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="5" t="s">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="5" t="s">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
         <v>51</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="5" t="s">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="15">
         <v>52</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9" t="s">
+      <c r="B54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H54" s="8"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="15">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="5" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="5" t="s">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9" t="s">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H57" s="8"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="15">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="5" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="5" t="s">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="15">
         <v>58</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="13" t="s">
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="5" t="s">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="5" t="s">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="15">
         <v>61</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="5" t="s">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="15">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9" t="s">
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H64" s="8"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="15">
         <v>63</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="5" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="15">
         <v>64</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H66" s="8"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="15">
         <v>65</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H67" s="8"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="15">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="5" t="s">
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="15">
         <v>67</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9" t="s">
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H69" s="8"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="5" t="s">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="J70" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="15">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="5" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="15">
         <v>70</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="B72" s="6"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="13" t="s">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="15">
         <v>71</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="5" t="s">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="15">
         <v>72</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9" t="s">
+      <c r="B74" s="6"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E74" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="5" t="s">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="5" t="s">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="15">
         <v>74</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
+      <c r="B76" s="6"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="5" t="s">
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H77" s="8"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="15">
         <v>76</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="13" t="s">
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="15">
         <v>77</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="9" t="s">
+      <c r="B79" s="6"/>
+      <c r="C79" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="13" t="s">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="15">
         <v>78</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
+      <c r="B80" s="6"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="13" t="s">
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="15">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="13" t="s">
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="15">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B82" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="13" t="s">
+      <c r="G82" s="6"/>
+      <c r="H82" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I82" s="15"/>
+      <c r="J82" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="15">
         <v>81</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="13" t="s">
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="J83" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="15">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F84" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="13" t="s">
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="15">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F85" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="13" t="s">
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="15">
         <v>84</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C86" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9" t="s">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H85" s="13" t="s">
+      <c r="H86" s="8"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="15">
         <v>85</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B87" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="13" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="15">
         <v>86</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9" t="s">
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="H88" s="8"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="15">
         <v>87</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B89" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9" t="s">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H89" s="8"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="15">
         <v>88</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="13" t="s">
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="15">
         <v>89</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B91" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="13" t="s">
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="J91" s="12" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="15">
         <v>90</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9" t="s">
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H91" s="13" t="s">
+      <c r="H92" s="8"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="15">
         <v>91</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9" t="s">
+      <c r="B93" s="6"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H93" s="8"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
         <v>92</v>
       </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9" t="s">
+      <c r="B94" s="6"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H94" s="8"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="15">
         <v>93</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B95" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="13" t="s">
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="J95" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="15">
         <v>94</v>
       </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
+      <c r="B96" s="6"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F96" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="13" t="s">
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="15">
         <v>95</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9" t="s">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H96" s="13" t="s">
+      <c r="H97" s="8"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="15">
         <v>96</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9" t="s">
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H97" s="13" t="s">
+      <c r="H98" s="8"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
         <v>97</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B99" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9" t="s">
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="H98" s="13" t="s">
+      <c r="H99" s="8"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
         <v>98</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B100" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9" t="s">
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="H99" s="13" t="s">
+      <c r="H100" s="8"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
         <v>99</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B101" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="13" t="s">
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
         <v>100</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B102" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C102" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9" t="s">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="H101" s="13" t="s">
+      <c r="H102" s="8"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
         <v>101</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B103" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="13" t="s">
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
         <v>102</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
+      <c r="B104" s="6"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="13" t="s">
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
         <v>103</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B105" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9" t="s">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="H104" s="13" t="s">
+      <c r="H105" s="8"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
         <v>104</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
+      <c r="B106" s="6"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="F106" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="13" t="s">
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="15">
         <v>105</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B107" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9" t="s">
+      <c r="C107" s="8"/>
+      <c r="D107" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E107" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="13" t="s">
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
         <v>106</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="13" t="s">
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="J108" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="15">
         <v>107</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B110" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C110" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9" t="s">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="H108" s="13" t="s">
+      <c r="H110" s="8"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="15">
         <v>108</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9" t="s">
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H109" s="13" t="s">
+      <c r="H111" s="8"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="15">
         <v>109</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B112" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="13" t="s">
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="J112" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="15">
         <v>110</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B113" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C113" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="F113" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="13" t="s">
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="15">
         <v>111</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B114" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C114" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9" t="s">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="F114" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="13" t="s">
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="15">
         <v>112</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B115" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="13" t="s">
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="12" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="15">
         <v>113</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B116" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C116" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D116" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E116" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F116" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="13" t="s">
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="J116" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="15">
         <v>114</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="9" t="s">
+      <c r="B117" s="6"/>
+      <c r="C117" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="13" t="s">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="12" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="15">
         <v>115</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
+      <c r="B118" s="6"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="F118" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="13" t="s">
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="15">
         <v>116</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B119" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="13" t="s">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="15">
         <v>117</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B120" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="13" t="s">
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="J120" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="15">
         <v>118</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C121" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9" t="s">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H119" s="13" t="s">
+      <c r="H121" s="8"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="15">
         <v>119</v>
       </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9" t="s">
+      <c r="B122" s="6"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="H120" s="13" t="s">
+      <c r="H122" s="8"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="15">
         <v>120</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B123" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9" t="s">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H121" s="13" t="s">
+      <c r="H123" s="8"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="15">
         <v>121</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="14" t="s">
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H122" s="13" t="s">
+      <c r="H124" s="13"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="15">
         <v>122</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="13" t="s">
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="15">
         <v>123</v>
       </c>
-      <c r="B124" s="6"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9" t="s">
+      <c r="B126" s="6"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G126" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H124" s="13" t="s">
+      <c r="H126" s="8"/>
+      <c r="I126" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="J126" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="15">
         <v>124</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="13" t="s">
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="15">
         <v>125</v>
       </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9" t="s">
+      <c r="B128" s="6"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="13" t="s">
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" s="15">
         <v>126</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9" t="s">
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H127" s="13" t="s">
+      <c r="H129" s="8"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="12" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" s="15">
         <v>127</v>
       </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="9" t="s">
+      <c r="B130" s="6"/>
+      <c r="C130" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="13" t="s">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" s="15">
         <v>128</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C131" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="13" t="s">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="J131" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" s="15">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C132" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9" t="s">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H130" s="13" t="s">
+      <c r="H132" s="8"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="12" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" s="15">
         <v>130</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B133" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C133" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9" t="s">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H131" s="13" t="s">
+      <c r="H133" s="8"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" s="15">
         <v>131</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B134" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="13" t="s">
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="J134" s="12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" s="15">
         <v>132</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B135" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9" t="s">
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="H133" s="13" t="s">
+      <c r="H135" s="8"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="12" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" s="15">
         <v>133</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B136" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C136" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="13" t="s">
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="J136" s="12" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" s="15">
         <v>134</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B137" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9" t="s">
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="H135" s="13" t="s">
+      <c r="H137" s="8"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="12" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" s="15">
         <v>135</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B138" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="13" t="s">
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="12" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" s="15">
         <v>136</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B139" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="13" t="s">
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" s="15">
         <v>137</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B140" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9" t="s">
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H138" s="13" t="s">
+      <c r="H140" s="8"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" s="15">
         <v>138</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B141" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="13" t="s">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
+      <c r="I141" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="J141" s="12" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" s="15">
         <v>139</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B142" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C142" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9" t="s">
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="H140" s="13" t="s">
+      <c r="H142" s="8"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" s="15">
         <v>140</v>
       </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9" t="s">
+      <c r="B143" s="6"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="F143" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="G141" s="9"/>
-      <c r="H141" s="13" t="s">
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="12" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" s="15">
         <v>141</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B144" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C144" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="13" t="s">
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="8"/>
+      <c r="I144" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="J144" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145" s="15">
         <v>142</v>
       </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9" t="s">
+      <c r="B145" s="6"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="H143" s="13" t="s">
+      <c r="H145" s="8"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="12" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146" s="15">
         <v>143</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B146" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="13" t="s">
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="J146" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147" s="15">
         <v>144</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B147" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="13" t="s">
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="J147" s="12" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148" s="15">
         <v>145</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B148" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="13" t="s">
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149" s="15">
         <v>146</v>
       </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="12" t="s">
+      <c r="B149" s="6"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="F147" s="12" t="s">
+      <c r="F149" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="13" t="s">
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="J149" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150" s="15">
         <v>147</v>
       </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="12" t="s">
+      <c r="B150" s="6"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="F150" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="13" t="s">
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151" s="15">
         <v>148</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="12" t="s">
+      <c r="B151" s="6"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="F149" s="12" t="s">
+      <c r="F151" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="G149" s="12"/>
-      <c r="H149" s="13" t="s">
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152" s="15">
         <v>149</v>
       </c>
-      <c r="B150" s="6"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="12" t="s">
+      <c r="B152" s="6"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F152" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="G150" s="12"/>
-      <c r="H150" s="13" t="s">
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153" s="15">
         <v>150</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="12" t="s">
+      <c r="B153" s="6"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F151" s="12" t="s">
+      <c r="F153" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="13" t="s">
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154" s="15">
         <v>151</v>
       </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="12" t="s">
+      <c r="B154" s="6"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F152" s="12" t="s">
+      <c r="F154" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="G152" s="12"/>
-      <c r="H152" s="13" t="s">
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155" s="15">
         <v>152</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="12" t="s">
+      <c r="B155" s="6"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="F155" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G153" s="12"/>
-      <c r="H153" s="13" t="s">
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156" s="15">
         <v>153</v>
       </c>
-      <c r="B154" s="6"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="12" t="s">
+      <c r="B156" s="6"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F156" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="G154" s="12"/>
-      <c r="H154" s="13" t="s">
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157" s="15">
         <v>154</v>
       </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9" t="s">
+      <c r="B157" s="6"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="F157" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="13" t="s">
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158" s="15">
         <v>155</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B158" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C156" s="9" t="s">
+      <c r="C158" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D158" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="E158" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="F158" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="G156" s="9"/>
-      <c r="H156" s="13" t="s">
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="12" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159" s="15">
         <v>156</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B159" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C159" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9" t="s">
+      <c r="D159" s="8"/>
+      <c r="E159" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="F159" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G157" s="9"/>
-      <c r="H157" s="13" t="s">
+      <c r="G159" s="8"/>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="15">
         <v>157</v>
       </c>
-      <c r="B158" s="6"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9" t="s">
+      <c r="B160" s="6"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F160" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="G158" s="9"/>
-      <c r="H158" s="13" t="s">
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="15">
         <v>158</v>
       </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9" t="s">
+      <c r="B161" s="6"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F159" s="9" t="s">
+      <c r="F161" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="G159" s="9"/>
-      <c r="H159" s="13" t="s">
+      <c r="G161" s="8"/>
+      <c r="H161" s="8"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="15">
         <v>159</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B162" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C160" s="9" t="s">
+      <c r="C162" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9" t="s">
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="H160" s="13" t="s">
+      <c r="H162" s="8"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="15">
         <v>160</v>
       </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9" t="s">
+      <c r="B163" s="6"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F163" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="G161" s="9"/>
-      <c r="H161" s="13" t="s">
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="12" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="15">
         <v>161</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C162" s="9" t="s">
+      <c r="C164" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9" t="s">
+      <c r="D164" s="8"/>
+      <c r="E164" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="F164" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G162" s="9"/>
-      <c r="H162" s="13" t="s">
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="J164" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="15">
         <v>162</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B165" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C165" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E163" s="9" t="s">
+      <c r="E165" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="F163" s="9" t="s">
+      <c r="F165" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="G163" s="9"/>
-      <c r="H163" s="13" t="s">
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="15">
         <v>163</v>
       </c>
-      <c r="B164" s="6"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9" t="s">
+      <c r="B166" s="6"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="F164" s="9" t="s">
+      <c r="F166" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G164" s="9"/>
-      <c r="H164" s="13" t="s">
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="12" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="15">
         <v>164</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B167" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C167" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9" t="s">
+      <c r="D167" s="8"/>
+      <c r="E167" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="F165" s="9" t="s">
+      <c r="F167" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="G165" s="9"/>
-      <c r="H165" s="13" t="s">
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="15">
         <v>165</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9" t="s">
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="H166" s="13" t="s">
+      <c r="H168" s="8"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="12" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="15">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B169" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C167" s="9" t="s">
+      <c r="C169" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="15" t="s">
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="H167" s="13" t="s">
+      <c r="H169" s="14"/>
+      <c r="I169" s="14"/>
+      <c r="J169" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="15">
         <v>167</v>
       </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="9"/>
-      <c r="G168" s="15" t="s">
+      <c r="B170" s="6"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H168" s="13" t="s">
+      <c r="H170" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="I170" s="14"/>
+      <c r="J170" s="12" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="15">
         <v>168</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="13" t="s">
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="15">
         <v>169</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="13" t="s">
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="15">
         <v>170</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B173" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C171" s="6"/>
-      <c r="D171" s="6"/>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="13" t="s">
+      <c r="C173" s="6"/>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="12" t="s">
         <v>332</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E43BE6-A2D6-405D-B628-063BC06E0BE5}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>6618</v>
+      </c>
+      <c r="B1">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+      <c r="B22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Dados/Auxiliares/Padronização de Produtos.xlsx
+++ b/Dados/Auxiliares/Padronização de Produtos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4B5EC9-8550-40CE-951C-5B3A55B2ACFF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F75B0-06E6-469A-A852-A9E8DDFB6987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Tabela 6616 - 2017</t>
   </si>
   <si>
-    <t>Padronizado</t>
-  </si>
-  <si>
     <t>ABACATE</t>
   </si>
   <si>
@@ -1302,6 +1299,9 @@
   </si>
   <si>
     <t>Tabela 6619</t>
+  </si>
+  <si>
+    <t>Produto_Padronizado</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1721,7 @@
   <dimension ref="A1:J173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1738,7 +1738,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1773,19 +1773,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1793,21 +1793,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1815,21 +1815,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1837,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1848,10 +1848,10 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1869,7 +1869,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1877,19 +1877,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1897,7 +1897,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1906,10 +1906,10 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1917,19 +1917,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1942,12 +1942,12 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1960,12 +1960,12 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1973,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1982,10 +1982,10 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1993,10 +1993,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -2004,10 +2004,10 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2025,7 +2025,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="15"/>
       <c r="J14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2034,24 +2034,24 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H15" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2063,11 +2063,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="7"/>
       <c r="H16" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2075,23 +2075,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="15"/>
       <c r="J17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2108,10 +2108,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2119,21 +2119,21 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="15"/>
       <c r="J19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2141,21 +2141,21 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="15"/>
       <c r="J20" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -2168,12 +2168,12 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="15"/>
       <c r="J21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -2181,19 +2181,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="15"/>
       <c r="J22" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2201,27 +2201,27 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -2229,21 +2229,21 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="15"/>
       <c r="J24" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -2251,23 +2251,23 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="15"/>
       <c r="J25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -2275,21 +2275,21 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="15"/>
       <c r="J26" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -2297,7 +2297,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2306,10 +2306,10 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -2317,23 +2317,23 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="15"/>
       <c r="J28" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -2341,10 +2341,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2352,10 +2352,10 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2363,10 +2363,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2374,10 +2374,10 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -2390,12 +2390,12 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="15"/>
       <c r="J31" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2408,12 +2408,12 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="15"/>
       <c r="J32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2431,7 +2431,7 @@
       <c r="H33" s="6"/>
       <c r="I33" s="15"/>
       <c r="J33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -2439,7 +2439,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -2448,10 +2448,10 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -2459,7 +2459,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2468,10 +2468,10 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -2479,19 +2479,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="15"/>
       <c r="J36" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -2499,25 +2499,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="D37" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -2527,19 +2527,19 @@
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
       <c r="D38" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2547,19 +2547,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="15"/>
       <c r="J39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -2572,12 +2572,12 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="15"/>
       <c r="J40" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -2590,12 +2590,12 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="15"/>
       <c r="J41" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -2606,16 +2606,16 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="15"/>
       <c r="J42" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -2623,23 +2623,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="15"/>
       <c r="J43" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -2647,10 +2647,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2659,7 +2659,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="15"/>
       <c r="J44" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2667,7 +2667,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -2677,7 +2677,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="15"/>
       <c r="J45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2685,21 +2685,21 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="15"/>
       <c r="J46" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2707,7 +2707,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -2716,10 +2716,10 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2727,19 +2727,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="15"/>
       <c r="J48" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2747,23 +2747,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>103</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="15"/>
       <c r="J49" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2771,7 +2771,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2780,10 +2780,10 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2791,10 +2791,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2802,10 +2802,10 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2813,21 +2813,21 @@
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="15"/>
       <c r="J52" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2835,23 +2835,23 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="15"/>
       <c r="J53" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2864,12 +2864,12 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="15"/>
       <c r="J54" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2877,7 +2877,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2886,10 +2886,10 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2897,10 +2897,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2908,10 +2908,10 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2919,19 +2919,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="15"/>
       <c r="J57" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2939,7 +2939,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2948,10 +2948,10 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2959,7 +2959,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
@@ -2968,10 +2968,10 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2982,16 +2982,16 @@
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="15"/>
       <c r="J60" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3008,10 +3008,10 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3019,10 +3019,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3030,10 +3030,10 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -3041,7 +3041,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3051,7 +3051,7 @@
       <c r="H63" s="6"/>
       <c r="I63" s="15"/>
       <c r="J63" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -3059,19 +3059,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="15"/>
       <c r="J64" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -3079,7 +3079,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
@@ -3089,7 +3089,7 @@
       <c r="H65" s="6"/>
       <c r="I65" s="15"/>
       <c r="J65" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -3102,12 +3102,12 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="15"/>
       <c r="J66" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -3115,19 +3115,19 @@
         <v>65</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="15"/>
       <c r="J67" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -3135,7 +3135,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3145,7 +3145,7 @@
       <c r="H68" s="6"/>
       <c r="I68" s="15"/>
       <c r="J68" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -3153,19 +3153,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="15"/>
       <c r="J69" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -3173,23 +3173,23 @@
         <v>68</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -3206,10 +3206,10 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -3220,16 +3220,16 @@
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="15"/>
       <c r="J72" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -3237,25 +3237,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="F73" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="15"/>
       <c r="J73" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -3265,19 +3265,19 @@
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="F74" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="15"/>
       <c r="J74" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3287,19 +3287,19 @@
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="F75" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="15"/>
       <c r="J75" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -3310,16 +3310,16 @@
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="15"/>
       <c r="J76" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3327,21 +3327,21 @@
         <v>75</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="15"/>
       <c r="J77" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3349,7 +3349,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
@@ -3359,7 +3359,7 @@
       <c r="H78" s="6"/>
       <c r="I78" s="15"/>
       <c r="J78" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3377,7 +3377,7 @@
       <c r="H79" s="6"/>
       <c r="I79" s="15"/>
       <c r="J79" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3388,16 +3388,16 @@
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="15"/>
       <c r="J80" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3405,7 +3405,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -3415,7 +3415,7 @@
       <c r="H81" s="6"/>
       <c r="I81" s="15"/>
       <c r="J81" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3423,23 +3423,23 @@
         <v>80</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3447,7 +3447,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -3456,10 +3456,10 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3467,21 +3467,21 @@
         <v>82</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="15"/>
       <c r="J84" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3489,21 +3489,21 @@
         <v>83</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="15"/>
       <c r="J85" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3511,21 +3511,21 @@
         <v>84</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="15"/>
       <c r="J86" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3533,7 +3533,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3543,7 +3543,7 @@
       <c r="H87" s="6"/>
       <c r="I87" s="15"/>
       <c r="J87" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3551,19 +3551,19 @@
         <v>86</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="15"/>
       <c r="J88" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3571,19 +3571,19 @@
         <v>87</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="15"/>
       <c r="J89" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3591,7 +3591,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -3601,7 +3601,7 @@
       <c r="H90" s="6"/>
       <c r="I90" s="15"/>
       <c r="J90" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3609,7 +3609,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -3618,10 +3618,10 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3629,19 +3629,19 @@
         <v>90</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="15"/>
       <c r="J92" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3654,12 +3654,12 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H93" s="8"/>
       <c r="I93" s="15"/>
       <c r="J93" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -3672,12 +3672,12 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H94" s="8"/>
       <c r="I94" s="15"/>
       <c r="J94" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -3685,7 +3685,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -3694,10 +3694,10 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -3708,16 +3708,16 @@
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="15"/>
       <c r="J96" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -3725,21 +3725,21 @@
         <v>95</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H97" s="8"/>
       <c r="I97" s="15"/>
       <c r="J97" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -3747,19 +3747,19 @@
         <v>96</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H98" s="8"/>
       <c r="I98" s="15"/>
       <c r="J98" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -3767,19 +3767,19 @@
         <v>97</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H99" s="8"/>
       <c r="I99" s="15"/>
       <c r="J99" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -3787,19 +3787,19 @@
         <v>98</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="15"/>
       <c r="J100" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -3807,21 +3807,21 @@
         <v>99</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="15"/>
       <c r="J101" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -3829,21 +3829,21 @@
         <v>100</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="15"/>
       <c r="J102" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -3851,7 +3851,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -3861,7 +3861,7 @@
       <c r="H103" s="8"/>
       <c r="I103" s="15"/>
       <c r="J103" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -3872,16 +3872,16 @@
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="15"/>
       <c r="J104" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -3889,19 +3889,19 @@
         <v>103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H105" s="8"/>
       <c r="I105" s="15"/>
       <c r="J105" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -3912,16 +3912,16 @@
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="15"/>
       <c r="J106" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -3929,23 +3929,23 @@
         <v>105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C107" s="8"/>
       <c r="D107" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>211</v>
-      </c>
       <c r="F107" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="15"/>
       <c r="J107" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -3953,7 +3953,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -3962,10 +3962,10 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -3978,10 +3978,10 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -3989,21 +3989,21 @@
         <v>107</v>
       </c>
       <c r="B110" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>214</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H110" s="8"/>
       <c r="I110" s="15"/>
       <c r="J110" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4011,19 +4011,19 @@
         <v>108</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="15"/>
       <c r="J111" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4031,7 +4031,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4040,10 +4040,10 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4051,23 +4051,23 @@
         <v>110</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>220</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
       <c r="I113" s="15"/>
       <c r="J113" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4075,23 +4075,23 @@
         <v>111</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="15"/>
       <c r="J114" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4099,7 +4099,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -4109,7 +4109,7 @@
       <c r="H115" s="8"/>
       <c r="I115" s="15"/>
       <c r="J115" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4117,27 +4117,27 @@
         <v>113</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="D116" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>229</v>
-      </c>
       <c r="F116" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -4155,7 +4155,7 @@
       <c r="H117" s="8"/>
       <c r="I117" s="15"/>
       <c r="J117" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -4166,16 +4166,16 @@
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="15"/>
       <c r="J118" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -4183,7 +4183,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -4193,7 +4193,7 @@
       <c r="H119" s="8"/>
       <c r="I119" s="15"/>
       <c r="J119" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -4201,7 +4201,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -4210,10 +4210,10 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -4221,21 +4221,21 @@
         <v>118</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>236</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H121" s="8"/>
       <c r="I121" s="15"/>
       <c r="J121" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -4248,12 +4248,12 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H122" s="8"/>
       <c r="I122" s="15"/>
       <c r="J122" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -4261,19 +4261,19 @@
         <v>120</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H123" s="8"/>
       <c r="I123" s="15"/>
       <c r="J123" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4281,19 +4281,19 @@
         <v>121</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H124" s="13"/>
       <c r="I124" s="15"/>
       <c r="J124" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -4301,7 +4301,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -4311,7 +4311,7 @@
       <c r="H125" s="8"/>
       <c r="I125" s="15"/>
       <c r="J125" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -4323,17 +4323,17 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H126" s="8"/>
       <c r="I126" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="J126" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="J126" s="12" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -4341,7 +4341,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -4351,7 +4351,7 @@
       <c r="H127" s="8"/>
       <c r="I127" s="15"/>
       <c r="J127" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -4363,13 +4363,13 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="15"/>
       <c r="J128" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -4377,19 +4377,19 @@
         <v>126</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H129" s="8"/>
       <c r="I129" s="15"/>
       <c r="J129" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -4407,7 +4407,7 @@
       <c r="H130" s="8"/>
       <c r="I130" s="15"/>
       <c r="J130" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -4415,10 +4415,10 @@
         <v>128</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -4426,10 +4426,10 @@
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -4437,21 +4437,21 @@
         <v>129</v>
       </c>
       <c r="B132" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>255</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>256</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H132" s="8"/>
       <c r="I132" s="15"/>
       <c r="J132" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -4459,21 +4459,21 @@
         <v>130</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C133" s="8" t="s">
         <v>259</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H133" s="8"/>
       <c r="I133" s="15"/>
       <c r="J133" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -4481,7 +4481,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -4490,10 +4490,10 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="I134" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -4501,19 +4501,19 @@
         <v>132</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H135" s="8"/>
       <c r="I135" s="15"/>
       <c r="J135" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -4521,10 +4521,10 @@
         <v>133</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -4532,10 +4532,10 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -4543,19 +4543,19 @@
         <v>134</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="15"/>
       <c r="J137" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -4563,7 +4563,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -4573,7 +4573,7 @@
       <c r="H138" s="8"/>
       <c r="I138" s="15"/>
       <c r="J138" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -4581,7 +4581,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -4591,7 +4591,7 @@
       <c r="H139" s="8"/>
       <c r="I139" s="15"/>
       <c r="J139" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -4599,19 +4599,19 @@
         <v>137</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="15"/>
       <c r="J140" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -4619,7 +4619,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -4628,10 +4628,10 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
@@ -4639,21 +4639,21 @@
         <v>139</v>
       </c>
       <c r="B142" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
       <c r="G142" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H142" s="8"/>
       <c r="I142" s="15"/>
       <c r="J142" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
@@ -4664,16 +4664,16 @@
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="15"/>
       <c r="J143" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -4681,10 +4681,10 @@
         <v>141</v>
       </c>
       <c r="B144" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
@@ -4692,10 +4692,10 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J144" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -4708,12 +4708,12 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
       <c r="G145" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H145" s="8"/>
       <c r="I145" s="15"/>
       <c r="J145" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -4721,7 +4721,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -4730,10 +4730,10 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -4741,7 +4741,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -4750,10 +4750,10 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -4761,7 +4761,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -4771,7 +4771,7 @@
       <c r="H148" s="11"/>
       <c r="I148" s="15"/>
       <c r="J148" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -4782,18 +4782,18 @@
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J149" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -4804,16 +4804,16 @@
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="15"/>
       <c r="J150" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -4824,16 +4824,16 @@
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="15"/>
       <c r="J151" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -4844,16 +4844,16 @@
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="15"/>
       <c r="J152" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -4864,16 +4864,16 @@
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
       <c r="I153" s="15"/>
       <c r="J153" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -4884,16 +4884,16 @@
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
       <c r="J154" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -4904,16 +4904,16 @@
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
       <c r="J155" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -4924,16 +4924,16 @@
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
       <c r="J156" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -4944,16 +4944,16 @@
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
       <c r="J157" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -4961,25 +4961,25 @@
         <v>155</v>
       </c>
       <c r="B158" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="F158" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
       <c r="J158" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -4987,23 +4987,23 @@
         <v>156</v>
       </c>
       <c r="B159" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C159" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
       <c r="J159" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -5014,16 +5014,16 @@
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
       <c r="J160" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -5034,16 +5034,16 @@
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
       <c r="J161" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -5051,21 +5051,21 @@
         <v>159</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>307</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
       <c r="J162" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -5076,16 +5076,16 @@
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
       <c r="J163" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -5093,25 +5093,25 @@
         <v>161</v>
       </c>
       <c r="B164" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="D164" s="8"/>
       <c r="E164" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -5119,25 +5119,25 @@
         <v>162</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C165" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="D165" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="E165" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E165" s="8" t="s">
-        <v>317</v>
-      </c>
       <c r="F165" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="15"/>
       <c r="J165" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -5148,16 +5148,16 @@
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="15"/>
       <c r="J166" s="12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -5165,23 +5165,23 @@
         <v>164</v>
       </c>
       <c r="B167" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C167" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="15"/>
       <c r="J167" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
@@ -5189,19 +5189,19 @@
         <v>165</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
       <c r="G168" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H168" s="8"/>
       <c r="I168" s="15"/>
       <c r="J168" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -5209,21 +5209,21 @@
         <v>166</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C169" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
       <c r="G169" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -5236,14 +5236,14 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I170" s="14"/>
       <c r="J170" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -5251,7 +5251,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -5261,7 +5261,7 @@
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
       <c r="J171" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -5269,7 +5269,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -5278,10 +5278,10 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J172" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -5289,7 +5289,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -5299,7 +5299,7 @@
       <c r="H173" s="6"/>
       <c r="I173" s="15"/>
       <c r="J173" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5330,192 +5330,192 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/Auxiliares/Padronização de Produtos.xlsx
+++ b/Dados/Auxiliares/Padronização de Produtos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993F75B0-06E6-469A-A852-A9E8DDFB6987}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6485D8-DEC4-48A7-BCF8-DC8F7EDDBD93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="440">
   <si>
     <t>Proagro</t>
   </si>
@@ -1302,6 +1302,45 @@
   </si>
   <si>
     <t>Produto_Padronizado</t>
+  </si>
+  <si>
+    <t>Abacate</t>
+  </si>
+  <si>
+    <t>Abacaxi</t>
+  </si>
+  <si>
+    <t>Abóbora</t>
+  </si>
+  <si>
+    <t>Amendoim</t>
+  </si>
+  <si>
+    <t>Brócolis</t>
+  </si>
+  <si>
+    <t>Centeio</t>
+  </si>
+  <si>
+    <t>Girassol</t>
+  </si>
+  <si>
+    <t>Lichia</t>
+  </si>
+  <si>
+    <t>Lima</t>
+  </si>
+  <si>
+    <t>Limão</t>
+  </si>
+  <si>
+    <t>Maracujá</t>
+  </si>
+  <si>
+    <t>Morango</t>
+  </si>
+  <si>
+    <t>Vagem</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1397,12 +1436,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,6 +1487,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1720,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,7 +1829,9 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="17" t="s">
+        <v>427</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -1795,7 +1851,9 @@
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="17" t="s">
+        <v>428</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
         <v>9</v>
@@ -1817,7 +1875,9 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="17" t="s">
+        <v>429</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2055,7 +2115,9 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="15">
+        <v>15</v>
+      </c>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2072,7 +2134,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>32</v>
@@ -2096,7 +2158,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>35</v>
@@ -2116,7 +2178,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>36</v>
@@ -2138,12 +2200,14 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="17" t="s">
+        <v>430</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
         <v>40</v>
@@ -2160,7 +2224,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
@@ -2178,7 +2242,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>43</v>
@@ -2198,7 +2262,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>45</v>
@@ -2226,7 +2290,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>49</v>
@@ -2248,7 +2312,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>52</v>
@@ -2272,7 +2336,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>55</v>
@@ -2294,7 +2358,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>58</v>
@@ -2314,7 +2378,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>59</v>
@@ -2338,7 +2402,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>63</v>
@@ -2360,7 +2424,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>65</v>
@@ -2382,7 +2446,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
@@ -2400,7 +2464,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
@@ -2418,7 +2482,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>70</v>
@@ -2436,12 +2500,14 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="17" t="s">
+        <v>431</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -2456,7 +2522,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>73</v>
@@ -2476,7 +2542,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>74</v>
@@ -2496,7 +2562,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>76</v>
@@ -2522,7 +2588,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
@@ -2544,7 +2610,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>81</v>
@@ -2564,7 +2630,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
@@ -2582,7 +2648,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
@@ -2600,7 +2666,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
@@ -2620,7 +2686,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>89</v>
@@ -2644,7 +2710,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>92</v>
@@ -2664,7 +2730,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>94</v>
@@ -2682,7 +2748,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>95</v>
@@ -2704,7 +2770,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>98</v>
@@ -2724,7 +2790,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>99</v>
@@ -2744,7 +2810,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>101</v>
@@ -2768,7 +2834,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>104</v>
@@ -2788,7 +2854,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>105</v>
@@ -2810,12 +2876,14 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="17" t="s">
+        <v>432</v>
+      </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8" t="s">
         <v>108</v>
@@ -2832,7 +2900,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>109</v>
@@ -2856,7 +2924,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
@@ -2874,7 +2942,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>114</v>
@@ -2894,7 +2962,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>115</v>
@@ -2916,7 +2984,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>117</v>
@@ -2936,7 +3004,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>119</v>
@@ -2956,7 +3024,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>120</v>
@@ -2976,7 +3044,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
@@ -2996,7 +3064,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>122</v>
@@ -3016,7 +3084,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>123</v>
@@ -3038,7 +3106,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>125</v>
@@ -3056,7 +3124,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>126</v>
@@ -3076,7 +3144,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>128</v>
@@ -3094,7 +3162,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="8"/>
@@ -3112,7 +3180,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>131</v>
@@ -3132,7 +3200,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>133</v>
@@ -3150,7 +3218,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="15">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>134</v>
@@ -3170,7 +3238,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="15">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>136</v>
@@ -3194,7 +3262,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="15">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>138</v>
@@ -3214,7 +3282,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="15">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
@@ -3234,7 +3302,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="15">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>141</v>
@@ -3260,7 +3328,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="15">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
@@ -3282,7 +3350,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="15">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
@@ -3304,7 +3372,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="15">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
@@ -3324,7 +3392,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="15">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>152</v>
@@ -3346,7 +3414,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="15">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>155</v>
@@ -3364,7 +3432,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="8" t="s">
@@ -3382,7 +3450,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="15">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
@@ -3402,7 +3470,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="15">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>160</v>
@@ -3420,7 +3488,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="15">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>161</v>
@@ -3444,7 +3512,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="15">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>163</v>
@@ -3464,7 +3532,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="15">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>164</v>
@@ -3486,12 +3554,14 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="15">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C85" s="8"/>
+      <c r="C85" s="17" t="s">
+        <v>433</v>
+      </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8" t="s">
         <v>167</v>
@@ -3508,7 +3578,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="15">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>168</v>
@@ -3530,7 +3600,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="15">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>171</v>
@@ -3548,7 +3618,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="15">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>172</v>
@@ -3568,7 +3638,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="15">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>174</v>
@@ -3588,7 +3658,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="15">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>176</v>
@@ -3606,7 +3676,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="15">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>177</v>
@@ -3626,7 +3696,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="15">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>178</v>
@@ -3646,7 +3716,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="15">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
@@ -3664,7 +3734,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="15">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
@@ -3682,7 +3752,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="15">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>184</v>
@@ -3702,7 +3772,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="15">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
@@ -3722,7 +3792,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="15">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>187</v>
@@ -3744,12 +3814,14 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="15">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="17" t="s">
+        <v>434</v>
+      </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -3764,12 +3836,14 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="15">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="8"/>
+      <c r="C99" s="17" t="s">
+        <v>435</v>
+      </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -3784,12 +3858,14 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="15">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="8"/>
+      <c r="C100" s="17" t="s">
+        <v>436</v>
+      </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
@@ -3804,7 +3880,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="15">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>196</v>
@@ -3826,7 +3902,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="15">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>198</v>
@@ -3848,7 +3924,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="15">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>201</v>
@@ -3866,7 +3942,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="15">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
@@ -3886,7 +3962,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="15">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>204</v>
@@ -3906,7 +3982,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="15">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
@@ -3926,12 +4002,14 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="15">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C107" s="8"/>
+      <c r="C107" s="17" t="s">
+        <v>209</v>
+      </c>
       <c r="D107" s="8" t="s">
         <v>209</v>
       </c>
@@ -3950,7 +4028,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>211</v>
@@ -3969,7 +4047,9 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A109" s="15"/>
+      <c r="A109" s="15">
+        <v>108</v>
+      </c>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -3986,7 +4066,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="15">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>212</v>
@@ -4008,12 +4088,14 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="15">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C111" s="8"/>
+      <c r="C111" s="17" t="s">
+        <v>437</v>
+      </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
@@ -4028,7 +4110,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="15">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>217</v>
@@ -4048,7 +4130,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="15">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>218</v>
@@ -4072,7 +4154,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="15">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>221</v>
@@ -4096,7 +4178,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="15">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>224</v>
@@ -4114,7 +4196,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="15">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>225</v>
@@ -4142,7 +4224,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="15">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="8" t="s">
@@ -4160,7 +4242,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="15">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
@@ -4180,7 +4262,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="15">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>232</v>
@@ -4198,12 +4280,14 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="15">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="8"/>
+      <c r="C120" s="17" t="s">
+        <v>438</v>
+      </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
@@ -4218,7 +4302,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="15">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>234</v>
@@ -4240,7 +4324,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="15">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
@@ -4258,7 +4342,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="15">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>239</v>
@@ -4278,7 +4362,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="15">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>241</v>
@@ -4298,7 +4382,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="15">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>243</v>
@@ -4316,7 +4400,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="15">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
@@ -4338,7 +4422,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="15">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>246</v>
@@ -4356,7 +4440,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="15">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
@@ -4374,7 +4458,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="15">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>249</v>
@@ -4394,7 +4478,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="15">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B130" s="6"/>
       <c r="C130" s="8" t="s">
@@ -4412,7 +4496,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="15">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>252</v>
@@ -4434,7 +4518,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="15">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>254</v>
@@ -4456,7 +4540,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="15">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>258</v>
@@ -4478,7 +4562,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="15">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>261</v>
@@ -4498,7 +4582,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="15">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>262</v>
@@ -4518,7 +4602,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="15">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>264</v>
@@ -4540,7 +4624,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="15">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>266</v>
@@ -4560,7 +4644,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="15">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>268</v>
@@ -4578,7 +4662,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="15">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>269</v>
@@ -4596,7 +4680,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="15">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>270</v>
@@ -4616,7 +4700,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="15">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>272</v>
@@ -4636,7 +4720,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="15">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>273</v>
@@ -4658,7 +4742,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
@@ -4678,7 +4762,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>278</v>
@@ -4700,7 +4784,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="15">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
@@ -4718,7 +4802,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>282</v>
@@ -4738,7 +4822,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>283</v>
@@ -4758,7 +4842,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>68</v>
@@ -4776,7 +4860,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
@@ -4798,7 +4882,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="15">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B150" s="6"/>
       <c r="C150" s="8"/>
@@ -4818,7 +4902,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="15">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="6"/>
       <c r="C151" s="8"/>
@@ -4838,7 +4922,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="15">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="8"/>
@@ -4858,7 +4942,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="15">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
@@ -4878,7 +4962,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="15">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
@@ -4898,7 +4982,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="15">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
@@ -4918,7 +5002,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="15">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
@@ -4938,7 +5022,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="15">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
@@ -4958,7 +5042,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="15">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>294</v>
@@ -4984,7 +5068,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="15">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>298</v>
@@ -5008,7 +5092,7 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="15">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
@@ -5028,7 +5112,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="15">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
@@ -5048,7 +5132,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="15">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>305</v>
@@ -5070,7 +5154,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="15">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
@@ -5090,7 +5174,7 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="15">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>310</v>
@@ -5116,7 +5200,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="15">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>313</v>
@@ -5142,7 +5226,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="15">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
@@ -5162,7 +5246,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="15">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>319</v>
@@ -5186,7 +5270,7 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="15">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>322</v>
@@ -5206,7 +5290,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="15">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>324</v>
@@ -5228,7 +5312,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="15">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="8"/>
@@ -5248,7 +5332,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="15">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>329</v>
@@ -5266,12 +5350,14 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="15">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C172" s="8"/>
+      <c r="C172" s="17" t="s">
+        <v>439</v>
+      </c>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -5285,8 +5371,8 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A173" s="15">
-        <v>170</v>
+      <c r="A173" s="16">
+        <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>331</v>
